--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACD/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACD/20/seed1/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.574299999999989</v>
+        <v>-7.685699999999992</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -496,16 +496,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.07780000000001</v>
+        <v>-21.06340000000001</v>
       </c>
       <c r="B4" t="n">
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.57979999999999</v>
+        <v>-11.55099999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.531999999999996</v>
+        <v>-6.193799999999994</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.73020000000001</v>
+        <v>-14.64150000000002</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -530,13 +530,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-20.39019999999998</v>
+        <v>-20.3056</v>
       </c>
       <c r="B6" t="n">
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.54459999999999</v>
+        <v>-11.54279999999999</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.4453</v>
+        <v>-21.36730000000001</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -564,13 +564,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-20.46249999999999</v>
+        <v>-20.545</v>
       </c>
       <c r="B8" t="n">
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.9132</v>
+        <v>-12.1327</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.690399999999996</v>
+        <v>-7.261400000000001</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.444099999999993</v>
+        <v>-8.259399999999996</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.193399999999997</v>
+        <v>-6.9358</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.2448</v>
+        <v>-20.4181</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.0498</v>
+        <v>-12.1534</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -743,7 +743,7 @@
         <v>-15.19</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.487099999999991</v>
+        <v>-8.377599999999996</v>
       </c>
       <c r="E18" t="n">
         <v>12.54</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.70730000000001</v>
+        <v>-22.82830000000002</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.66029999999999</v>
+        <v>-20.7412</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.40569999999999</v>
+        <v>-11.5478</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.573299999999994</v>
+        <v>-8.359699999999993</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
